--- a/Design/OPCODES.xlsx
+++ b/Design/OPCODES.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KIMO/Desktop/Harvard_Arch_Processor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamel\Desktop\Spring 2020\Architecture\Project\Harvard_Arch_Processor\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AB25E9-BB20-6643-9D9A-AC186D762535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="14400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25596" yWindow="0" windowWidth="25596" windowHeight="14400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Controls" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="295">
   <si>
     <t>0x000</t>
   </si>
@@ -730,9 +729,6 @@
     <t>0x1 =&gt; MEMPC</t>
   </si>
   <si>
-    <t>0x1/0x0/0x0</t>
-  </si>
-  <si>
     <t>PC_Reg</t>
   </si>
   <si>
@@ -883,35 +879,44 @@
     <t>Data_Stack/SPSel/ReadEnable/WriteEnable/Call/RETI</t>
   </si>
   <si>
-    <t>0x0/0x000/0x0/0x1/0x0/0x0</t>
-  </si>
-  <si>
-    <t>0x0/0x000/0x1/0x0/0x0/0x0</t>
-  </si>
-  <si>
-    <t>0x0/0x000/0x0/0x0/0x0/0x0</t>
-  </si>
-  <si>
-    <t>0x1/0x100/0x1/0x0/0x0/0x1</t>
-  </si>
-  <si>
-    <t>0x1/0x100/0x1/0x0/0x0/0x0</t>
-  </si>
-  <si>
-    <t>0x1/0x011/0x0/0x1/0x1/0x0</t>
-  </si>
-  <si>
-    <t>0x1/0x010/0x1/0x0/0x0/0x0</t>
-  </si>
-  <si>
-    <t>0x1/0x001/0x0/0x1/0x0/0x0</t>
+    <t>Rdst_Rsrc1/Rdst_Rsrc2</t>
+  </si>
+  <si>
+    <t>0x0/0x0</t>
+  </si>
+  <si>
+    <t>0x1/0x0</t>
+  </si>
+  <si>
+    <t>0x1/0x1</t>
+  </si>
+  <si>
+    <t>0x0/0x000/0x0/0x0/0x0</t>
+  </si>
+  <si>
+    <t>0x1/0x001/0x1/0x0/0x0</t>
+  </si>
+  <si>
+    <t>0x1/0x010/0x0/0x0/0x0</t>
+  </si>
+  <si>
+    <t>0x1/0x011/0x1/0x1/0x0</t>
+  </si>
+  <si>
+    <t>0x1/0x100/0x0/0x0/0x0</t>
+  </si>
+  <si>
+    <t>0x1/0x100/0x0/0x0/0x1</t>
+  </si>
+  <si>
+    <t>0x0/0x000/0x1/0x0/0x0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,12 +1064,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1079,6 +1078,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1360,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
@@ -1368,22 +1373,22 @@
       <selection pane="bottomLeft" activeCell="G29" sqref="A1:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
     <col min="7" max="7" width="84.6640625" customWidth="1"/>
     <col min="8" max="8" width="53.33203125" customWidth="1"/>
-    <col min="9" max="9" width="53.5" customWidth="1"/>
+    <col min="9" max="9" width="53.44140625" customWidth="1"/>
     <col min="10" max="10" width="102.6640625" customWidth="1"/>
     <col min="11" max="11" width="69.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -1418,7 +1423,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1445,7 +1450,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1472,7 +1477,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1499,7 +1504,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1528,7 +1533,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1557,7 +1562,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1586,7 +1591,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1615,7 +1620,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1646,7 +1651,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1679,7 +1684,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1712,7 +1717,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1745,7 +1750,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1778,7 +1783,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1807,7 +1812,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1840,7 +1845,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1873,7 +1878,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1902,7 +1907,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1931,7 +1936,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1960,7 +1965,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16">
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1987,7 +1992,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -2014,7 +2019,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -2043,7 +2048,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -2072,7 +2077,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -2101,7 +2106,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,7 +2135,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2163,7 +2168,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,7 +2199,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2229,7 +2234,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2264,7 +2269,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2274,28 +2279,28 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -2324,7 +2329,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -2353,7 +2358,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -2382,7 +2387,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -2411,32 +2416,32 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="11"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H36" s="11"/>
+      <c r="H36" s="17"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -2449,10 +2454,10 @@
       <c r="D37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="1" t="s">
         <v>86</v>
       </c>
@@ -2463,7 +2468,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -2492,7 +2497,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -2521,7 +2526,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -2534,10 +2539,10 @@
       <c r="D40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="1" t="s">
         <v>86</v>
       </c>
@@ -2548,32 +2553,32 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="11"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="11"/>
+      <c r="H41" s="17"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -2602,7 +2607,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -2615,10 +2620,10 @@
       <c r="D43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F43" s="11"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="1" t="s">
         <v>123</v>
       </c>
@@ -2629,30 +2634,30 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="11" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="11"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="H44" s="11"/>
+      <c r="H44" s="17"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>108</v>
       </c>
@@ -2681,7 +2686,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>109</v>
       </c>
@@ -2694,10 +2699,10 @@
       <c r="D46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="11"/>
+      <c r="F46" s="17"/>
       <c r="G46" s="1" t="s">
         <v>123</v>
       </c>
@@ -2708,30 +2713,30 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11" t="s">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="11"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="8" t="s">
         <v>131</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="H47" s="11"/>
+      <c r="H47" s="17"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>126</v>
       </c>
@@ -2760,7 +2765,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>127</v>
       </c>
@@ -2773,10 +2778,10 @@
       <c r="D49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F49" s="11"/>
+      <c r="F49" s="17"/>
       <c r="G49" s="1" t="s">
         <v>138</v>
       </c>
@@ -2787,15 +2792,15 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="11" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11" t="s">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="11"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="1" t="s">
         <v>136</v>
       </c>
@@ -2808,7 +2813,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>145</v>
       </c>
@@ -2833,7 +2838,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>126</v>
       </c>
@@ -2854,24 +2859,24 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12" t="s">
+      <c r="B53" s="17"/>
+      <c r="C53" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
       <c r="H53" s="10"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>111</v>
       </c>
@@ -2899,7 +2904,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>140</v>
       </c>
@@ -2928,7 +2933,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>141</v>
       </c>
@@ -2957,7 +2962,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>143</v>
       </c>
@@ -2986,7 +2991,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
@@ -3011,7 +3016,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3024,7 +3029,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3037,7 +3042,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3050,7 +3055,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3063,7 +3068,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3076,7 +3081,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3089,7 +3094,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3102,7 +3107,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3115,7 +3120,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3128,7 +3133,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3141,7 +3146,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3154,7 +3159,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3167,7 +3172,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3180,7 +3185,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3193,7 +3198,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3206,7 +3211,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3219,7 +3224,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3232,7 +3237,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3245,7 +3250,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3258,7 +3263,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3273,6 +3278,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="E43:F43"/>
@@ -3285,17 +3301,6 @@
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="C53:G53"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3303,942 +3308,942 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C95019F-4CA9-094F-B57A-F55F25E7DD75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
     <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" customWidth="1"/>
-    <col min="8" max="8" width="42.83203125" customWidth="1"/>
-    <col min="9" max="9" width="56" customWidth="1"/>
-    <col min="10" max="10" width="64.83203125" customWidth="1"/>
-    <col min="11" max="11" width="56.83203125" customWidth="1"/>
+    <col min="8" max="8" width="42.77734375" customWidth="1"/>
+    <col min="9" max="9" width="65.6640625" customWidth="1"/>
+    <col min="10" max="10" width="64.77734375" customWidth="1"/>
+    <col min="11" max="11" width="56.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="1" t="s">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="1" t="s">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="17"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="15"/>
       <c r="H5" s="1" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="J6" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="C7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="15"/>
       <c r="H8" s="1" t="s">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="I10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="17"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="15"/>
       <c r="H18" s="1" t="s">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="K19" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16">
-      <c r="A20" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="17"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="15"/>
       <c r="H23" s="1" t="s">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="17"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="15"/>
       <c r="H24" s="1" t="s">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="17"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="15"/>
       <c r="H25" s="1" t="s">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="15" t="s">
+      <c r="D26" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>91</v>
+        <v>286</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="15" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="15" t="s">
+      <c r="D28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>43</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="16">
-      <c r="H33" s="14" t="s">
+    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H33" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="J33" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="K33" s="14" t="s">
+      <c r="J33" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="K33" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -4252,13 +4257,13 @@
         <v>204</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>215</v>
       </c>
@@ -4278,7 +4283,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>216</v>
       </c>
@@ -4298,7 +4303,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>217</v>
       </c>
@@ -4313,7 +4318,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H38" s="1" t="s">
         <v>200</v>
       </c>
@@ -4325,7 +4330,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H39" s="1" t="s">
         <v>201</v>
       </c>
@@ -4337,7 +4342,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H40" s="9" t="s">
         <v>202</v>
       </c>
@@ -4351,7 +4356,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H41" s="7" t="s">
         <v>200</v>
       </c>
@@ -4365,7 +4370,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H42" s="7" t="s">
         <v>203</v>
       </c>
@@ -4373,49 +4378,49 @@
         <v>208</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K42" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
         <v>209</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
         <v>210</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H45" s="1"/>
       <c r="I45" s="9" t="s">
         <v>212</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H46" s="1"/>
       <c r="I46" s="7" t="s">
         <v>213</v>
@@ -4425,7 +4430,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H47" s="1"/>
       <c r="I47" s="7" t="s">
         <v>214</v>
@@ -4435,132 +4440,132 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H48" s="1"/>
       <c r="I48" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="8:11">
+    <row r="49" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>196</v>
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="8:11">
+    <row r="50" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>226</v>
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="8:11">
+    <row r="51" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H51" s="1"/>
       <c r="I51" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="8:11">
+    <row r="52" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>227</v>
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="8:11">
+    <row r="53" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>226</v>
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="8:11">
+    <row r="54" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="8:11">
+    <row r="55" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="8:11">
+    <row r="56" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="8:11">
+    <row r="57" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="8:11">
+    <row r="58" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="8:11">
+    <row r="59" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="8:11">
+    <row r="60" spans="8:11" x14ac:dyDescent="0.3">
       <c r="I60" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I61" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="8:11">
-      <c r="I61" s="1" t="s">
+    <row r="62" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I62" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="8:11">
-      <c r="I62" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="63" spans="8:11">
+    <row r="63" spans="8:11" x14ac:dyDescent="0.3">
       <c r="I63" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/Design/OPCODES.xlsx
+++ b/Design/OPCODES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamel\Desktop\Spring 2020\Architecture\Project\Harvard_Arch_Processor\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KIMO/Desktop/Harvard_Arch_Processor/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71E5826-7B0F-CF43-9B70-98588202EBF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25596" yWindow="0" windowWidth="25596" windowHeight="14400" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="13940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controls" sheetId="2" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="296">
   <si>
     <t>0x000</t>
   </si>
@@ -910,12 +911,15 @@
   </si>
   <si>
     <t>0x0/0x000/0x1/0x0/0x0</t>
+  </si>
+  <si>
+    <t>XX0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1365,7 +1369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
@@ -1373,22 +1377,22 @@
       <selection pane="bottomLeft" activeCell="G29" sqref="A1:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
     <col min="7" max="7" width="84.6640625" customWidth="1"/>
     <col min="8" max="8" width="53.33203125" customWidth="1"/>
-    <col min="9" max="9" width="53.44140625" customWidth="1"/>
+    <col min="9" max="9" width="53.5" customWidth="1"/>
     <col min="10" max="10" width="102.6640625" customWidth="1"/>
     <col min="11" max="11" width="69.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1450,7 +1454,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1477,7 +1481,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1504,7 +1508,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1533,7 +1537,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1562,7 +1566,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1620,7 +1624,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1651,7 +1655,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1684,7 +1688,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1717,7 +1721,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1750,7 +1754,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1783,7 +1787,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1812,7 +1816,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1845,7 +1849,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1878,7 +1882,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1907,7 +1911,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1936,7 +1940,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1965,7 +1969,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1992,7 +1996,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -2019,7 +2023,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -2048,7 +2052,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -2077,7 +2081,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -2106,7 +2110,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -2135,7 +2139,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2168,7 +2172,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2199,7 +2203,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2234,7 +2238,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2269,7 +2273,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2279,7 +2283,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>65</v>
       </c>
@@ -2300,7 +2304,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -2329,7 +2333,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -2358,7 +2362,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -2387,7 +2391,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -2416,7 +2420,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -2441,7 +2445,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -2468,7 +2472,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -2497,7 +2501,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -2526,7 +2530,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -2553,7 +2557,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -2578,7 +2582,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -2607,7 +2611,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -2634,7 +2638,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
         <v>107</v>
       </c>
@@ -2657,7 +2661,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>108</v>
       </c>
@@ -2686,7 +2690,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>109</v>
       </c>
@@ -2713,7 +2717,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>125</v>
       </c>
@@ -2736,7 +2740,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>126</v>
       </c>
@@ -2765,7 +2769,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>127</v>
       </c>
@@ -2792,7 +2796,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
         <v>144</v>
       </c>
@@ -2813,7 +2817,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>145</v>
       </c>
@@ -2838,7 +2842,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>126</v>
       </c>
@@ -2859,7 +2863,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
         <v>139</v>
       </c>
@@ -2876,7 +2880,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>111</v>
       </c>
@@ -2904,7 +2908,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>140</v>
       </c>
@@ -2933,7 +2937,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>141</v>
       </c>
@@ -2962,7 +2966,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>143</v>
       </c>
@@ -2991,7 +2995,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
@@ -3016,7 +3020,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3029,7 +3033,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3042,7 +3046,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3055,7 +3059,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3068,7 +3072,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3081,7 +3085,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3094,7 +3098,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3107,7 +3111,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3120,7 +3124,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3133,7 +3137,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3146,7 +3150,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3159,7 +3163,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3172,7 +3176,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3185,7 +3189,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3198,7 +3202,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3211,7 +3215,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3224,7 +3228,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3237,7 +3241,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3250,7 +3254,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3263,7 +3267,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3278,17 +3282,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E40:F40"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="E43:F43"/>
@@ -3301,6 +3294,17 @@
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="C53:G53"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3308,31 +3312,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="162" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="2" width="36.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
     <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" customWidth="1"/>
-    <col min="8" max="8" width="42.77734375" customWidth="1"/>
+    <col min="8" max="8" width="42.83203125" customWidth="1"/>
     <col min="9" max="9" width="65.6640625" customWidth="1"/>
-    <col min="10" max="10" width="64.77734375" customWidth="1"/>
-    <col min="11" max="11" width="56.77734375" customWidth="1"/>
+    <col min="10" max="10" width="64.83203125" customWidth="1"/>
+    <col min="11" max="11" width="56.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>46</v>
       </c>
@@ -3367,7 +3371,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -3394,7 +3398,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -3421,7 +3425,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
@@ -3448,7 +3452,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3477,7 +3481,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -3506,7 +3510,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
@@ -3535,7 +3539,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
@@ -3564,7 +3568,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
@@ -3595,7 +3599,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
@@ -3628,7 +3632,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
@@ -3661,7 +3665,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
@@ -3694,7 +3698,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
@@ -3727,7 +3731,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
@@ -3770,7 +3774,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>40</v>
@@ -3789,7 +3793,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
@@ -3803,7 +3807,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>40</v>
@@ -3822,7 +3826,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>28</v>
       </c>
@@ -3851,7 +3855,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>29</v>
       </c>
@@ -3880,7 +3884,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>34</v>
       </c>
@@ -3909,7 +3913,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>35</v>
       </c>
@@ -3936,7 +3940,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>36</v>
       </c>
@@ -3963,7 +3967,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>30</v>
       </c>
@@ -3992,7 +3996,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>31</v>
       </c>
@@ -4021,7 +4025,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>32</v>
       </c>
@@ -4050,7 +4054,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>33</v>
       </c>
@@ -4079,7 +4083,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>24</v>
       </c>
@@ -4112,7 +4116,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>25</v>
       </c>
@@ -4143,7 +4147,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>26</v>
       </c>
@@ -4178,7 +4182,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>27</v>
       </c>
@@ -4211,25 +4215,25 @@
       </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="H33" s="12" t="s">
         <v>193</v>
       </c>
@@ -4243,7 +4247,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -4263,7 +4267,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>215</v>
       </c>
@@ -4283,7 +4287,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>216</v>
       </c>
@@ -4303,7 +4307,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>217</v>
       </c>
@@ -4318,7 +4322,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H38" s="1" t="s">
         <v>200</v>
       </c>
@@ -4330,7 +4334,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H39" s="1" t="s">
         <v>201</v>
       </c>
@@ -4342,7 +4346,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H40" s="9" t="s">
         <v>202</v>
       </c>
@@ -4356,7 +4360,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H41" s="7" t="s">
         <v>200</v>
       </c>
@@ -4370,7 +4374,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H42" s="7" t="s">
         <v>203</v>
       </c>
@@ -4384,7 +4388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
         <v>209</v>
@@ -4396,7 +4400,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
         <v>210</v>
@@ -4408,7 +4412,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H45" s="1"/>
       <c r="I45" s="9" t="s">
         <v>212</v>
@@ -4420,7 +4424,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H46" s="1"/>
       <c r="I46" s="7" t="s">
         <v>213</v>
@@ -4430,7 +4434,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H47" s="1"/>
       <c r="I47" s="7" t="s">
         <v>214</v>
@@ -4440,7 +4444,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H48" s="1"/>
       <c r="I48" s="9" t="s">
         <v>234</v>
@@ -4448,7 +4452,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
         <v>235</v>
@@ -4458,7 +4462,7 @@
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
         <v>236</v>
@@ -4468,7 +4472,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H51" s="1"/>
       <c r="I51" s="9" t="s">
         <v>237</v>
@@ -4478,7 +4482,7 @@
       </c>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
         <v>238</v>
@@ -4488,7 +4492,7 @@
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
         <v>239</v>
@@ -4498,7 +4502,7 @@
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
         <v>241</v>
@@ -4508,7 +4512,7 @@
       </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
         <v>243</v>
@@ -4516,7 +4520,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
         <v>245</v>
@@ -4524,7 +4528,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
         <v>246</v>
@@ -4532,7 +4536,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
         <v>247</v>
@@ -4540,7 +4544,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
         <v>248</v>
@@ -4548,22 +4552,22 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:11" x14ac:dyDescent="0.2">
       <c r="I60" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:11" x14ac:dyDescent="0.2">
       <c r="I61" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:11" x14ac:dyDescent="0.2">
       <c r="I62" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="63" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:11" x14ac:dyDescent="0.2">
       <c r="I63" s="1" t="s">
         <v>277</v>
       </c>

--- a/Design/OPCODES.xlsx
+++ b/Design/OPCODES.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KIMO/Desktop/Harvard_Arch_Processor/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tech\CUFE_CHS\Spring 2020\Architecture\Project\Harvard_Arch_Processor\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71E5826-7B0F-CF43-9B70-98588202EBF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="13940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="19200" windowHeight="6768" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Controls" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="300">
   <si>
     <t>0x000</t>
   </si>
@@ -874,12 +873,6 @@
     <t>0x100 =&gt; RET</t>
   </si>
   <si>
-    <t>Data_Stack/SPSel/ReadEnable/WriteEnable</t>
-  </si>
-  <si>
-    <t>Data_Stack/SPSel/ReadEnable/WriteEnable/Call/RETI</t>
-  </si>
-  <si>
     <t>Rdst_Rsrc1/Rdst_Rsrc2</t>
   </si>
   <si>
@@ -892,34 +885,52 @@
     <t>0x1/0x1</t>
   </si>
   <si>
-    <t>0x0/0x000/0x0/0x0/0x0</t>
-  </si>
-  <si>
-    <t>0x1/0x001/0x1/0x0/0x0</t>
-  </si>
-  <si>
-    <t>0x1/0x010/0x0/0x0/0x0</t>
-  </si>
-  <si>
-    <t>0x1/0x011/0x1/0x1/0x0</t>
-  </si>
-  <si>
-    <t>0x1/0x100/0x0/0x0/0x0</t>
-  </si>
-  <si>
-    <t>0x1/0x100/0x0/0x0/0x1</t>
-  </si>
-  <si>
-    <t>0x0/0x000/0x1/0x0/0x0</t>
-  </si>
-  <si>
     <t>XX0</t>
+  </si>
+  <si>
+    <t>0x0/0x0/0x0/0x00/0x0/0x0/0x0011</t>
+  </si>
+  <si>
+    <t>push flags</t>
+  </si>
+  <si>
+    <t>pop m[2]+m[3]</t>
+  </si>
+  <si>
+    <t>Data_Stack/SPSel/WriteEnable/Call/RTI/INT</t>
+  </si>
+  <si>
+    <t>0x0/0x000/0x0/0x0/0x0/0x0</t>
+  </si>
+  <si>
+    <t>0x1/0x001/0x1/0x0/0x0/0x0</t>
+  </si>
+  <si>
+    <t>0x1/0x010/0x0/0x0/0x0/0x0</t>
+  </si>
+  <si>
+    <t>0x1/0x011/0x1/0x1/0x0/0x0</t>
+  </si>
+  <si>
+    <t>0x1/0x100/0x0/0x0/0x0/0x0</t>
+  </si>
+  <si>
+    <t>0x1/0x100/0x0/0x0/0x1/0x0</t>
+  </si>
+  <si>
+    <t>0x0/0x000/0x1/0x0/0x0/0x0</t>
+  </si>
+  <si>
+    <t>0x0/0x010/0x0/0x0/0x0/0x0</t>
+  </si>
+  <si>
+    <t>0x1/0x001/0x1/0x0/0x0/0x1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1369,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
@@ -1377,22 +1388,22 @@
       <selection pane="bottomLeft" activeCell="G29" sqref="A1:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
     <col min="7" max="7" width="84.6640625" customWidth="1"/>
     <col min="8" max="8" width="53.33203125" customWidth="1"/>
-    <col min="9" max="9" width="53.5" customWidth="1"/>
+    <col min="9" max="9" width="53.44140625" customWidth="1"/>
     <col min="10" max="10" width="102.6640625" customWidth="1"/>
     <col min="11" max="11" width="69.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -1427,7 +1438,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1454,7 +1465,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1481,7 +1492,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1508,7 +1519,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1537,7 +1548,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1566,7 +1577,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1595,7 +1606,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1624,7 +1635,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1655,7 +1666,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1699,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1721,7 +1732,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1754,7 +1765,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1787,7 +1798,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1816,7 +1827,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1849,7 +1860,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1882,7 +1893,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1911,7 +1922,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1940,7 +1951,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1969,7 +1980,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1996,7 +2007,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -2023,7 +2034,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -2052,7 +2063,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -2081,7 +2092,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,7 +2121,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,7 +2150,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2172,7 +2183,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2203,7 +2214,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2238,7 +2249,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,7 +2284,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2283,7 +2294,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>65</v>
       </c>
@@ -2304,7 +2315,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -2333,7 +2344,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -2362,7 +2373,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -2391,7 +2402,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -2420,7 +2431,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -2445,7 +2456,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -2472,7 +2483,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -2501,7 +2512,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -2530,7 +2541,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -2557,7 +2568,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -2582,7 +2593,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -2611,7 +2622,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -2638,7 +2649,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>107</v>
       </c>
@@ -2661,7 +2672,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>108</v>
       </c>
@@ -2690,7 +2701,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>109</v>
       </c>
@@ -2717,7 +2728,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>125</v>
       </c>
@@ -2740,7 +2751,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>126</v>
       </c>
@@ -2769,7 +2780,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>127</v>
       </c>
@@ -2796,7 +2807,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>144</v>
       </c>
@@ -2817,7 +2828,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>145</v>
       </c>
@@ -2842,7 +2853,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>126</v>
       </c>
@@ -2863,7 +2874,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>139</v>
       </c>
@@ -2880,7 +2891,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>111</v>
       </c>
@@ -2908,7 +2919,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>140</v>
       </c>
@@ -2937,7 +2948,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>141</v>
       </c>
@@ -2966,7 +2977,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>143</v>
       </c>
@@ -2995,7 +3006,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
@@ -3020,7 +3031,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3033,7 +3044,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3046,7 +3057,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3059,7 +3070,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3072,7 +3083,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3085,7 +3096,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3098,7 +3109,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3111,7 +3122,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3124,7 +3135,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3137,7 +3148,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3150,7 +3161,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3163,7 +3174,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3176,7 +3187,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3189,7 +3200,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3202,7 +3213,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3215,7 +3226,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3228,7 +3239,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3241,7 +3252,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3254,7 +3265,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3267,7 +3278,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3282,6 +3293,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="E43:F43"/>
@@ -3294,17 +3316,6 @@
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="C53:G53"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3312,31 +3323,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="162" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
     <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" customWidth="1"/>
-    <col min="8" max="8" width="42.83203125" customWidth="1"/>
+    <col min="8" max="8" width="42.77734375" customWidth="1"/>
     <col min="9" max="9" width="65.6640625" customWidth="1"/>
-    <col min="10" max="10" width="64.83203125" customWidth="1"/>
-    <col min="11" max="11" width="56.83203125" customWidth="1"/>
+    <col min="10" max="10" width="64.77734375" customWidth="1"/>
+    <col min="11" max="11" width="56.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>46</v>
       </c>
@@ -3359,19 +3370,19 @@
         <v>52</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>258</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -3386,19 +3397,19 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>259</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -3413,19 +3424,19 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>260</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
@@ -3440,19 +3451,19 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>261</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3469,19 +3480,19 @@
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>262</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -3498,19 +3509,19 @@
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>263</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
@@ -3527,19 +3538,19 @@
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>264</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
@@ -3556,19 +3567,19 @@
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
@@ -3587,19 +3598,19 @@
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>266</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
@@ -3620,19 +3631,19 @@
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>265</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
@@ -3653,19 +3664,19 @@
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>267</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
@@ -3686,19 +3697,19 @@
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>268</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
@@ -3719,19 +3730,19 @@
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>269</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
@@ -3748,19 +3759,19 @@
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>270</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
@@ -3774,26 +3785,26 @@
         <v>40</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>271</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
@@ -3807,26 +3818,26 @@
         <v>40</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>272</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>28</v>
       </c>
@@ -3843,19 +3854,19 @@
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>266</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>29</v>
       </c>
@@ -3872,19 +3883,19 @@
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>259</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>34</v>
       </c>
@@ -3901,19 +3912,19 @@
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>273</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>35</v>
       </c>
@@ -3928,19 +3939,19 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>259</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>36</v>
       </c>
@@ -3955,19 +3966,19 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>259</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>30</v>
       </c>
@@ -3984,19 +3995,19 @@
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>274</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>31</v>
       </c>
@@ -4013,19 +4024,19 @@
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>274</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>32</v>
       </c>
@@ -4042,19 +4053,19 @@
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>274</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>33</v>
       </c>
@@ -4071,19 +4082,19 @@
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>275</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>24</v>
       </c>
@@ -4104,19 +4115,19 @@
         <v>42</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>276</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>25</v>
       </c>
@@ -4135,19 +4146,19 @@
         <v>42</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>278</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>26</v>
       </c>
@@ -4170,19 +4181,19 @@
         <v>43</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>259</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>27</v>
       </c>
@@ -4205,370 +4216,435 @@
         <v>43</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>266</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="H33" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H36" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I36" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="K33" s="12" t="s">
+      <c r="J36" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>182</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>218</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I37" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J37" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K37" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>215</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>219</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>216</v>
-      </c>
-      <c r="B36" t="s">
-        <v>220</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>217</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H38" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="J38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="K38" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H39" s="1" t="s">
-        <v>201</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" t="s">
+        <v>220</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="J39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="K39" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>217</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H41" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H42" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H40" s="9" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H43" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I43" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="J43" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H41" s="7" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H44" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H42" s="7" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H45" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="K45" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H43" s="1"/>
-      <c r="I43" s="1" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H44" s="1"/>
-      <c r="I44" s="1" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H45" s="1"/>
-      <c r="I45" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H46" s="1"/>
-      <c r="I46" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H47" s="1"/>
-      <c r="I47" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H48" s="1"/>
       <c r="I48" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H49" s="1"/>
-      <c r="I49" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="I49" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H50" s="1"/>
-      <c r="I50" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="I50" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H51" s="1"/>
       <c r="I51" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>226</v>
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H54" s="1"/>
-      <c r="I54" s="1" t="s">
-        <v>241</v>
+      <c r="I54" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J55" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>227</v>
+      </c>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J56" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J57" s="1"/>
+        <v>241</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="8:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H61" s="1"/>
+      <c r="I61" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H62" s="1"/>
+      <c r="I62" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I63" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="I61" s="1" t="s">
+    <row r="64" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I64" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="I62" s="1" t="s">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I65" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="63" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="I63" s="1" t="s">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I66" s="1" t="s">
         <v>277</v>
       </c>
     </row>

--- a/Design/OPCODES.xlsx
+++ b/Design/OPCODES.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="301">
   <si>
     <t>0x000</t>
   </si>
@@ -925,6 +925,9 @@
   </si>
   <si>
     <t>0x1/0x001/0x1/0x0/0x0/0x1</t>
+  </si>
+  <si>
+    <t>0x0/0x00/0x0/0x1</t>
   </si>
 </sst>
 </file>
@@ -3293,17 +3296,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E40:F40"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="E43:F43"/>
@@ -3316,6 +3308,17 @@
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="C53:G53"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3326,10 +3329,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3975,7 +3978,7 @@
         <v>296</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">

--- a/Design/OPCODES.xlsx
+++ b/Design/OPCODES.xlsx
@@ -902,10 +902,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1924,7 +1924,7 @@
         <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>58</v>
@@ -1944,7 +1944,7 @@
         <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>59</v>

--- a/Design/OPCODES.xlsx
+++ b/Design/OPCODES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="19200" windowHeight="6768"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="19200" windowHeight="6756"/>
   </bookViews>
   <sheets>
     <sheet name="Updated Controls" sheetId="3" r:id="rId1"/>
@@ -902,10 +902,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1497,7 +1497,7 @@
         <v>155</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
